--- a/Sub Urb Rural.xlsx
+++ b/Sub Urb Rural.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christinamooshil/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alber\Downloads\Stat382\Project4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3B4244F-5B98-2F4E-939F-FE84A2E5C2D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC2906A-3940-4977-BD1D-8524375A3FF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="880" windowWidth="24640" windowHeight="14000" xr2:uid="{20DC3C40-96DC-1049-9237-76A40A1E4558}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="24975" windowHeight="13455" xr2:uid="{20DC3C40-96DC-1049-9237-76A40A1E4558}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -888,17 +891,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8E5895-C1AC-4C45-9EBA-AEC7488FD5A8}">
   <dimension ref="A1:B160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -906,7 +909,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>154</v>
       </c>
@@ -914,7 +917,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>151</v>
       </c>
@@ -922,7 +925,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>155</v>
       </c>
@@ -930,7 +933,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>135</v>
       </c>
@@ -938,7 +941,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -946,7 +949,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>66</v>
       </c>
@@ -954,7 +957,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -962,7 +965,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
@@ -970,7 +973,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>144</v>
       </c>
@@ -978,7 +981,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>146</v>
       </c>
@@ -986,7 +989,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -994,7 +997,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>111</v>
       </c>
@@ -1002,7 +1005,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>158</v>
       </c>
@@ -1010,7 +1013,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>148</v>
       </c>
@@ -1018,7 +1021,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>115</v>
       </c>
@@ -1026,15 +1029,15 @@
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>94</v>
       </c>
@@ -1042,7 +1045,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>81</v>
       </c>
@@ -1050,7 +1053,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>134</v>
       </c>
@@ -1058,15 +1061,15 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>113</v>
       </c>
@@ -1074,7 +1077,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>41</v>
       </c>
@@ -1082,7 +1085,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>50</v>
       </c>
@@ -1090,7 +1093,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>159</v>
       </c>
@@ -1098,7 +1101,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
@@ -1106,7 +1109,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>105</v>
       </c>
@@ -1114,7 +1117,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>55</v>
       </c>
@@ -1122,7 +1125,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
@@ -1130,7 +1133,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>4</v>
       </c>
@@ -1138,7 +1141,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>128</v>
       </c>
@@ -1146,7 +1149,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -1154,7 +1157,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>157</v>
       </c>
@@ -1162,7 +1165,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>39</v>
       </c>
@@ -1170,23 +1173,23 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>11</v>
       </c>
@@ -1194,7 +1197,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>147</v>
       </c>
@@ -1202,7 +1205,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>25</v>
       </c>
@@ -1210,7 +1213,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>101</v>
       </c>
@@ -1218,7 +1221,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>140</v>
       </c>
@@ -1226,7 +1229,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>54</v>
       </c>
@@ -1234,7 +1237,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>64</v>
       </c>
@@ -1242,7 +1245,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>132</v>
       </c>
@@ -1250,7 +1253,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>2</v>
       </c>
@@ -1258,7 +1261,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>121</v>
       </c>
@@ -1266,7 +1269,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>123</v>
       </c>
@@ -1274,7 +1277,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>15</v>
       </c>
@@ -1282,7 +1285,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>40</v>
       </c>
@@ -1290,7 +1293,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>129</v>
       </c>
@@ -1298,7 +1301,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>149</v>
       </c>
@@ -1306,15 +1309,15 @@
         <v>163</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>70</v>
       </c>
@@ -1322,7 +1325,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>97</v>
       </c>
@@ -1330,7 +1333,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>114</v>
       </c>
@@ -1338,7 +1341,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>56</v>
       </c>
@@ -1346,7 +1349,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>26</v>
       </c>
@@ -1354,7 +1357,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>44</v>
       </c>
@@ -1362,7 +1365,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>37</v>
       </c>
@@ -1370,7 +1373,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>67</v>
       </c>
@@ -1378,7 +1381,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>1</v>
       </c>
@@ -1386,7 +1389,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>60</v>
       </c>
@@ -1394,7 +1397,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>92</v>
       </c>
@@ -1402,7 +1405,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>22</v>
       </c>
@@ -1410,15 +1413,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B65" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>136</v>
       </c>
@@ -1426,7 +1429,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>78</v>
       </c>
@@ -1434,7 +1437,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>31</v>
       </c>
@@ -1442,15 +1445,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B69" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>35</v>
       </c>
@@ -1458,7 +1461,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>84</v>
       </c>
@@ -1466,7 +1469,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>75</v>
       </c>
@@ -1474,7 +1477,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>104</v>
       </c>
@@ -1482,7 +1485,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>68</v>
       </c>
@@ -1490,7 +1493,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>76</v>
       </c>
@@ -1498,7 +1501,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>27</v>
       </c>
@@ -1506,7 +1509,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>14</v>
       </c>
@@ -1514,7 +1517,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>145</v>
       </c>
@@ -1522,7 +1525,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>34</v>
       </c>
@@ -1530,7 +1533,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>82</v>
       </c>
@@ -1538,7 +1541,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>153</v>
       </c>
@@ -1546,7 +1549,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>93</v>
       </c>
@@ -1554,7 +1557,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>96</v>
       </c>
@@ -1562,7 +1565,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>98</v>
       </c>
@@ -1570,7 +1573,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>90</v>
       </c>
@@ -1578,7 +1581,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>88</v>
       </c>
@@ -1586,7 +1589,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>150</v>
       </c>
@@ -1594,15 +1597,15 @@
         <v>163</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B88" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>139</v>
       </c>
@@ -1610,7 +1613,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>116</v>
       </c>
@@ -1618,7 +1621,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>74</v>
       </c>
@@ -1626,7 +1629,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>161</v>
       </c>
@@ -1634,7 +1637,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>19</v>
       </c>
@@ -1642,7 +1645,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>61</v>
       </c>
@@ -1650,7 +1653,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>110</v>
       </c>
@@ -1658,7 +1661,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>69</v>
       </c>
@@ -1666,7 +1669,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>107</v>
       </c>
@@ -1674,7 +1677,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>80</v>
       </c>
@@ -1682,7 +1685,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>162</v>
       </c>
@@ -1690,7 +1693,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>86</v>
       </c>
@@ -1698,7 +1701,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>130</v>
       </c>
@@ -1706,7 +1709,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>137</v>
       </c>
@@ -1714,7 +1717,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>89</v>
       </c>
@@ -1722,7 +1725,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>119</v>
       </c>
@@ -1730,7 +1733,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>77</v>
       </c>
@@ -1738,15 +1741,15 @@
         <v>163</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B106" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>5</v>
       </c>
@@ -1754,7 +1757,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>30</v>
       </c>
@@ -1762,7 +1765,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>71</v>
       </c>
@@ -1770,7 +1773,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>72</v>
       </c>
@@ -1778,7 +1781,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>42</v>
       </c>
@@ -1786,15 +1789,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>63</v>
       </c>
@@ -1802,7 +1805,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>156</v>
       </c>
@@ -1810,7 +1813,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>87</v>
       </c>
@@ -1818,15 +1821,15 @@
         <v>163</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B116" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>122</v>
       </c>
@@ -1834,7 +1837,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>83</v>
       </c>
@@ -1842,7 +1845,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>127</v>
       </c>
@@ -1850,7 +1853,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>59</v>
       </c>
@@ -1858,7 +1861,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>133</v>
       </c>
@@ -1866,7 +1869,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>7</v>
       </c>
@@ -1874,7 +1877,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>29</v>
       </c>
@@ -1882,7 +1885,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>108</v>
       </c>
@@ -1890,7 +1893,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>95</v>
       </c>
@@ -1898,7 +1901,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>131</v>
       </c>
@@ -1906,7 +1909,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>28</v>
       </c>
@@ -1914,7 +1917,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>65</v>
       </c>
@@ -1922,7 +1925,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>126</v>
       </c>
@@ -1930,7 +1933,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>124</v>
       </c>
@@ -1938,7 +1941,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>103</v>
       </c>
@@ -1946,7 +1949,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>79</v>
       </c>
@@ -1954,7 +1957,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>117</v>
       </c>
@@ -1962,7 +1965,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>106</v>
       </c>
@@ -1970,7 +1973,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>152</v>
       </c>
@@ -1978,7 +1981,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>138</v>
       </c>
@@ -1986,15 +1989,15 @@
         <v>163</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B137" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>16</v>
       </c>
@@ -2002,7 +2005,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>118</v>
       </c>
@@ -2010,7 +2013,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>58</v>
       </c>
@@ -2018,7 +2021,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>112</v>
       </c>
@@ -2026,7 +2029,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>24</v>
       </c>
@@ -2034,7 +2037,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>142</v>
       </c>
@@ -2042,7 +2045,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>100</v>
       </c>
@@ -2050,7 +2053,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>57</v>
       </c>
@@ -2058,7 +2061,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>102</v>
       </c>
@@ -2066,15 +2069,15 @@
         <v>163</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B147" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>33</v>
       </c>
@@ -2082,15 +2085,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B149" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>85</v>
       </c>
@@ -2098,7 +2101,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>91</v>
       </c>
@@ -2106,7 +2109,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>160</v>
       </c>
@@ -2114,7 +2117,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>125</v>
       </c>
@@ -2122,7 +2125,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>120</v>
       </c>
@@ -2130,7 +2133,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>62</v>
       </c>
@@ -2138,7 +2141,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>48</v>
       </c>
@@ -2146,7 +2149,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>143</v>
       </c>
@@ -2154,7 +2157,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>73</v>
       </c>
@@ -2162,7 +2165,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>99</v>
       </c>
@@ -2170,7 +2173,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>141</v>
       </c>
